--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2207249394142</v>
+        <v>136.964442002555</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0183231585558</v>
+        <v>187.4007919925397</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8418375799652</v>
+        <v>169.515523423488</v>
       </c>
       <c r="AD2" t="n">
-        <v>116220.7249394142</v>
+        <v>136964.442002555</v>
       </c>
       <c r="AE2" t="n">
-        <v>159018.3231585558</v>
+        <v>187400.7919925397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.68968250186779e-06</v>
+        <v>7.928140953637528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.320746527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>143841.8375799652</v>
+        <v>169515.523423488</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.44599228438821</v>
+        <v>80.18961983897796</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.33662921555809</v>
+        <v>109.7189755799936</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.57397547992032</v>
+        <v>99.24755054221647</v>
       </c>
       <c r="AD3" t="n">
-        <v>59445.99228438821</v>
+        <v>80189.61983897796</v>
       </c>
       <c r="AE3" t="n">
-        <v>81336.62921555809</v>
+        <v>109718.9755799936</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.161641607552785e-06</v>
+        <v>1.210711047101807e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.829861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>73573.97547992032</v>
+        <v>99247.55054221647</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.9437668872565</v>
+        <v>75.68739444184627</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.17648580303927</v>
+        <v>103.5588321674748</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.00174750887474</v>
+        <v>93.6753225711709</v>
       </c>
       <c r="AD4" t="n">
-        <v>54943.7668872565</v>
+        <v>75687.39444184626</v>
       </c>
       <c r="AE4" t="n">
-        <v>75176.48580303926</v>
+        <v>103558.8321674748</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.671606883094839e-06</v>
+        <v>1.296923207186157e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.641059027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>68001.74750887475</v>
+        <v>93675.32257117089</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.07167509506508</v>
+        <v>75.81530264965483</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.35149545587474</v>
+        <v>103.7338418203103</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.16005448607125</v>
+        <v>93.83362954836738</v>
       </c>
       <c r="AD5" t="n">
-        <v>55071.67509506508</v>
+        <v>75815.30264965483</v>
       </c>
       <c r="AE5" t="n">
-        <v>75351.49545587474</v>
+        <v>103733.8418203103</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.669739562422773e-06</v>
+        <v>1.296607527361608e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.641059027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>68160.05448607124</v>
+        <v>93833.62954836739</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.67146799951675</v>
+        <v>103.8526036872367</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.4829938415401</v>
+        <v>142.095714018335</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.5568975872241</v>
+        <v>128.5342985050507</v>
       </c>
       <c r="AD2" t="n">
-        <v>83671.46799951675</v>
+        <v>103852.6036872367</v>
       </c>
       <c r="AE2" t="n">
-        <v>114482.9938415401</v>
+        <v>142095.714018335</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735847614420351e-06</v>
+        <v>9.933289318946524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.654513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>103556.8975872241</v>
+        <v>128534.2985050507</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.84826059476845</v>
+        <v>72.94405542791682</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.30932164644551</v>
+        <v>99.80527470104282</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.40822147529522</v>
+        <v>90.279999361183</v>
       </c>
       <c r="AD3" t="n">
-        <v>52848.26059476845</v>
+        <v>72944.05542791683</v>
       </c>
       <c r="AE3" t="n">
-        <v>72309.32164644552</v>
+        <v>99805.27470104281</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.809642517751429e-06</v>
+        <v>1.352466868389956e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.684461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>65408.22147529522</v>
+        <v>90279.999361183</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.44193795522908</v>
+        <v>72.53773278837745</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.7533730853383</v>
+        <v>99.24932613993562</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.9053318645812</v>
+        <v>89.77710975046898</v>
       </c>
       <c r="AD4" t="n">
-        <v>52441.93795522908</v>
+        <v>72537.73278837746</v>
       </c>
       <c r="AE4" t="n">
-        <v>71753.3730853383</v>
+        <v>99249.32613993561</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.877445788308851e-06</v>
+        <v>1.364208977812885e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.660590277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>64905.3318645812</v>
+        <v>89777.10975046898</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.85802951322925</v>
+        <v>65.00341988408812</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.11322321034362</v>
+        <v>88.94054683386571</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.99434717063588</v>
+        <v>80.45218587290448</v>
       </c>
       <c r="AD2" t="n">
-        <v>46858.02951322924</v>
+        <v>65003.41988408811</v>
       </c>
       <c r="AE2" t="n">
-        <v>64113.22321034363</v>
+        <v>88940.54683386571</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.022179753568125e-06</v>
+        <v>1.517969038436221e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.914496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>57994.34717063588</v>
+        <v>80452.18587290448</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.5787279949167</v>
+        <v>68.48664869828974</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.83580290173235</v>
+        <v>93.70645416666385</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.36164908095306</v>
+        <v>84.76324169885484</v>
       </c>
       <c r="AD2" t="n">
-        <v>49578.7279949167</v>
+        <v>68486.64869828975</v>
       </c>
       <c r="AE2" t="n">
-        <v>67835.80290173236</v>
+        <v>93706.45416666384</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.933566161549337e-06</v>
+        <v>1.445323457585656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.821180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61361.64908095307</v>
+        <v>84763.24169885484</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.44221990436518</v>
+        <v>67.35014060773823</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.28078239304223</v>
+        <v>92.15143365797373</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.95503754712685</v>
+        <v>83.35663016502862</v>
       </c>
       <c r="AD3" t="n">
-        <v>48442.21990436518</v>
+        <v>67350.14060773823</v>
       </c>
       <c r="AE3" t="n">
-        <v>66280.78239304223</v>
+        <v>92151.43365797373</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.13513767723344e-06</v>
+        <v>1.482045410118341e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.749565972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>59955.03754712685</v>
+        <v>83356.63016502862</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.94962196832945</v>
+        <v>63.75236144394769</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.1844969832712</v>
+        <v>87.22879348326337</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.0089941133091</v>
+        <v>78.90379985962217</v>
       </c>
       <c r="AD2" t="n">
-        <v>54949.62196832945</v>
+        <v>63752.3614439477</v>
       </c>
       <c r="AE2" t="n">
-        <v>75184.49698327121</v>
+        <v>87228.79348326338</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.759613091248992e-06</v>
+        <v>1.520634150788109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.131510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68008.99411330911</v>
+        <v>78903.79985962217</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.13987301261865</v>
+        <v>108.4912859926505</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.5968627125794</v>
+        <v>148.4425637928193</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.0872673940822</v>
+        <v>134.2754138449197</v>
       </c>
       <c r="AD2" t="n">
-        <v>88139.87301261866</v>
+        <v>108491.2859926505</v>
       </c>
       <c r="AE2" t="n">
-        <v>120596.8627125794</v>
+        <v>148442.5637928193</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.477762962868466e-06</v>
+        <v>9.42438823560061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.791232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>109087.2673940822</v>
+        <v>134275.4138449197</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.31260524544503</v>
+        <v>75.5786773709053</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.68114671671248</v>
+        <v>103.4100806747548</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.45824429324318</v>
+        <v>93.54076771214199</v>
       </c>
       <c r="AD3" t="n">
-        <v>55312.60524544503</v>
+        <v>75578.67737090529</v>
       </c>
       <c r="AE3" t="n">
-        <v>75681.14671671248</v>
+        <v>103410.0806747548</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.53072759604808e-06</v>
+        <v>1.295647530621573e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.758246527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>68458.24429324319</v>
+        <v>93540.76771214198</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.98180454931939</v>
+        <v>73.24787667477968</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.49204237660548</v>
+        <v>100.2209763346478</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.57350359541896</v>
+        <v>90.65602701431774</v>
       </c>
       <c r="AD4" t="n">
-        <v>52981.80454931939</v>
+        <v>73247.87667477968</v>
       </c>
       <c r="AE4" t="n">
-        <v>72492.04237660549</v>
+        <v>100220.9763346478</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.851096517497731e-06</v>
+        <v>1.35076640149694e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.645399305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>65573.50359541895</v>
+        <v>90656.02701431775</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.85480046750346</v>
+        <v>71.91915923275359</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.05475802261176</v>
+        <v>98.40296651159221</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.8916372569652</v>
+        <v>89.01152549718118</v>
       </c>
       <c r="AD2" t="n">
-        <v>54854.80046750346</v>
+        <v>71919.15923275359</v>
       </c>
       <c r="AE2" t="n">
-        <v>75054.75802261177</v>
+        <v>98402.96651159221</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.438280764543831e-06</v>
+        <v>1.491122671875258e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.342013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>67891.6372569652</v>
+        <v>89011.52549718118</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.21064718395333</v>
+        <v>80.0249884368192</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.0653049521929</v>
+        <v>109.4937196325352</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.89696707608161</v>
+        <v>99.04379270623473</v>
       </c>
       <c r="AD2" t="n">
-        <v>70210.64718395333</v>
+        <v>80024.9884368192</v>
       </c>
       <c r="AE2" t="n">
-        <v>96065.30495219291</v>
+        <v>109493.7196325352</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.743224329916341e-06</v>
+        <v>1.194275135637694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>86896.96707608161</v>
+        <v>99043.79270623473</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.98125103473207</v>
+        <v>69.52441366879009</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.38655268287067</v>
+        <v>95.126369982261</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.85983607596191</v>
+        <v>86.0476427418762</v>
       </c>
       <c r="AD3" t="n">
-        <v>49981.25103473207</v>
+        <v>69524.41366879009</v>
       </c>
       <c r="AE3" t="n">
-        <v>68386.55268287068</v>
+        <v>95126.36998226099</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.11412038329327e-06</v>
+        <v>1.437071013394325e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.660590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>61859.83607596191</v>
+        <v>86047.6427418762</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.84648438767265</v>
+        <v>98.68027557473147</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.8812384005645</v>
+        <v>135.0187065077972</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.58520441991114</v>
+        <v>122.1327106586739</v>
       </c>
       <c r="AD2" t="n">
-        <v>78846.48438767265</v>
+        <v>98680.27557473147</v>
       </c>
       <c r="AE2" t="n">
-        <v>107881.2384005645</v>
+        <v>135018.7065077972</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.051832791871587e-06</v>
+        <v>1.055386794779975e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>97585.20441991114</v>
+        <v>122132.7106586739</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.5162174016051</v>
+        <v>71.4352599346845</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.48676138396212</v>
+        <v>97.74087414384404</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.75960380628327</v>
+        <v>88.41262229575823</v>
       </c>
       <c r="AD3" t="n">
-        <v>51516.2174016051</v>
+        <v>71435.25993468449</v>
       </c>
       <c r="AE3" t="n">
-        <v>70486.76138396212</v>
+        <v>97740.87414384403</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.961239274490994e-06</v>
+        <v>1.388370612563314e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.658420138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>63759.60380628327</v>
+        <v>88412.62229575822</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.65978312093713</v>
+        <v>71.57882565401651</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.68319433482463</v>
+        <v>97.93730709470654</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.9372894720109</v>
+        <v>88.59030796148585</v>
       </c>
       <c r="AD4" t="n">
-        <v>51659.78312093713</v>
+        <v>71578.82565401652</v>
       </c>
       <c r="AE4" t="n">
-        <v>70683.19433482463</v>
+        <v>97937.30709470654</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.957436647068116e-06</v>
+        <v>1.387707467545004e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.658420138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>63937.2894720109</v>
+        <v>88590.30796148584</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2376258215205</v>
+        <v>130.8272251231984</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.8319829897538</v>
+        <v>179.0035811033085</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4367902272705</v>
+        <v>161.9197305559628</v>
       </c>
       <c r="AD2" t="n">
-        <v>110237.6258215205</v>
+        <v>130827.2251231984</v>
       </c>
       <c r="AE2" t="n">
-        <v>150831.9829897538</v>
+        <v>179003.5811033085</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.921419995982391e-06</v>
+        <v>8.366087819274353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>136436.7902272705</v>
+        <v>161919.7305559628</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.6669036327243</v>
+        <v>78.25641342585112</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.90240163450083</v>
+        <v>107.0738772785071</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.37206716273853</v>
+        <v>96.8548967102042</v>
       </c>
       <c r="AD3" t="n">
-        <v>57666.9036327243</v>
+        <v>78256.41342585112</v>
       </c>
       <c r="AE3" t="n">
-        <v>78902.40163450083</v>
+        <v>107073.8772785071</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.338979456269535e-06</v>
+        <v>1.247577867467602e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.782118055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>71372.06716273853</v>
+        <v>96854.89671020421</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.31449714685371</v>
+        <v>74.90400693998053</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.31549118279895</v>
+        <v>102.4869668268052</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.22292500677635</v>
+        <v>92.70575455424202</v>
       </c>
       <c r="AD4" t="n">
-        <v>54314.49714685371</v>
+        <v>74904.00693998054</v>
       </c>
       <c r="AE4" t="n">
-        <v>74315.49118279896</v>
+        <v>102486.9668268052</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.727004902188404e-06</v>
+        <v>1.313539621581668e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.643229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>67222.92500677635</v>
+        <v>92705.75455424203</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.66214752608938</v>
+        <v>71.79309939382549</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.05467353514982</v>
+        <v>98.23048587860325</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.17787662234065</v>
+        <v>88.85550617372657</v>
       </c>
       <c r="AD2" t="n">
-        <v>52662.14752608938</v>
+        <v>71793.09939382548</v>
       </c>
       <c r="AE2" t="n">
-        <v>72054.67353514982</v>
+        <v>98230.48587860324</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.553264366129447e-06</v>
+        <v>1.362032305617643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.925347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>65177.87662234064</v>
+        <v>88855.50617372656</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.09886791235246</v>
+        <v>68.22981978008856</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.17923716683553</v>
+        <v>93.35504951028895</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.76774505829879</v>
+        <v>84.44537460968473</v>
       </c>
       <c r="AD3" t="n">
-        <v>49098.86791235246</v>
+        <v>68229.81978008857</v>
       </c>
       <c r="AE3" t="n">
-        <v>67179.23716683553</v>
+        <v>93355.04951028895</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.112433588068667e-06</v>
+        <v>1.462863748510536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.723524305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>60767.74505829879</v>
+        <v>84445.37460968473</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.1009720492546</v>
+        <v>65.51907219363522</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.44562790600162</v>
+        <v>89.64608507276208</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.2950276286733</v>
+        <v>81.09038853250993</v>
       </c>
       <c r="AD2" t="n">
-        <v>47100.9720492546</v>
+        <v>65519.07219363523</v>
       </c>
       <c r="AE2" t="n">
-        <v>64445.62790600162</v>
+        <v>89646.08507276207</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.134096465656091e-06</v>
+        <v>1.517562400004972e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.829861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>58295.02762867331</v>
+        <v>81090.38853250994</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.4896206056635</v>
+        <v>64.45653276070712</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.92334694192982</v>
+        <v>88.19227174469913</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.67732926889602</v>
+        <v>79.77532510803704</v>
       </c>
       <c r="AD2" t="n">
-        <v>55489.6206056635</v>
+        <v>64456.53276070712</v>
       </c>
       <c r="AE2" t="n">
-        <v>75923.34694192982</v>
+        <v>88192.27174469913</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.92393644191784e-06</v>
+        <v>1.52380236259589e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.005642361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>68677.32926889602</v>
+        <v>79775.32510803704</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.42297066061471</v>
+        <v>72.22710416081974</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.83215354672603</v>
+        <v>98.82431034774351</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.59483924333972</v>
+        <v>89.39265686897014</v>
       </c>
       <c r="AD2" t="n">
-        <v>55422.97066061471</v>
+        <v>72227.10416081974</v>
       </c>
       <c r="AE2" t="n">
-        <v>75832.15354672604</v>
+        <v>98824.31034774351</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.864719759426814e-06</v>
+        <v>1.415916631713915e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.721788194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>68594.83924333972</v>
+        <v>89392.65686897014</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.33578335377733</v>
+        <v>93.98564309355963</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.709498247907</v>
+        <v>128.5953032344933</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.0024864853296</v>
+        <v>116.322347978469</v>
       </c>
       <c r="AD2" t="n">
-        <v>74335.78335377733</v>
+        <v>93985.64309355963</v>
       </c>
       <c r="AE2" t="n">
-        <v>101709.498247907</v>
+        <v>128595.3032344933</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.389163775379718e-06</v>
+        <v>1.122550871504247e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.344184027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>92002.4864853296</v>
+        <v>116322.347978469</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.81731490741289</v>
+        <v>59.81288173217177</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.16224804112119</v>
+        <v>81.83862354403539</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.65693875440737</v>
+        <v>74.02806017424138</v>
       </c>
       <c r="AD3" t="n">
-        <v>49817.31490741289</v>
+        <v>59812.88173217177</v>
       </c>
       <c r="AE3" t="n">
-        <v>68162.24804112119</v>
+        <v>81838.62354403539</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.200542913547636e-06</v>
+        <v>1.44080304059255e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.606336805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>61656.93875440737</v>
+        <v>74028.06017424137</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.51375534598468</v>
+        <v>114.0295688908155</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9496456000434</v>
+        <v>156.0202867858822</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7383110024646</v>
+        <v>141.1299295909282</v>
       </c>
       <c r="AD2" t="n">
-        <v>93513.75534598468</v>
+        <v>114029.5688908155</v>
       </c>
       <c r="AE2" t="n">
-        <v>127949.6456000434</v>
+        <v>156020.2867858822</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20263014436332e-06</v>
+        <v>8.895917753294973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115738.3110024646</v>
+        <v>141129.9295909282</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.27039847528528</v>
+        <v>76.70087116554451</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.99164166863434</v>
+        <v>104.9455157322755</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.64366744624529</v>
+        <v>94.92966300277006</v>
       </c>
       <c r="AD3" t="n">
-        <v>56270.39847528528</v>
+        <v>76700.87116554451</v>
       </c>
       <c r="AE3" t="n">
-        <v>76991.64166863434</v>
+        <v>104945.5157322755</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.472049203231515e-06</v>
+        <v>1.277637143446323e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.756076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>69643.66744624529</v>
+        <v>94929.66300277006</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.49420849793143</v>
+        <v>63.83745612491848</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.19313606476292</v>
+        <v>87.34522377987992</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.20768588597004</v>
+        <v>79.00911821214062</v>
       </c>
       <c r="AD4" t="n">
-        <v>53494.20849793143</v>
+        <v>63837.45612491848</v>
       </c>
       <c r="AE4" t="n">
-        <v>73193.13606476292</v>
+        <v>87345.22377987992</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.810445538749975e-06</v>
+        <v>1.335499145650153e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>66207.68588597003</v>
+        <v>79009.11821214062</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.68581375142921</v>
+        <v>82.04701153949512</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.87422822825404</v>
+        <v>112.2603408469785</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.29675802544274</v>
+        <v>101.5463714749497</v>
       </c>
       <c r="AD2" t="n">
-        <v>65685.8137514292</v>
+        <v>82047.01153949511</v>
       </c>
       <c r="AE2" t="n">
-        <v>89874.22822825404</v>
+        <v>112260.3408469785</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.829336588180794e-06</v>
+        <v>1.249495324530036e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>81296.75802544274</v>
+        <v>101546.3714749497</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.9288340125764</v>
+        <v>66.59998110816331</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.5783451669101</v>
+        <v>91.12503233595443</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.3196399439797</v>
+        <v>82.42818714461922</v>
       </c>
       <c r="AD2" t="n">
-        <v>47928.83401257639</v>
+        <v>66599.98110816331</v>
       </c>
       <c r="AE2" t="n">
-        <v>65578.34516691009</v>
+        <v>91125.03233595443</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.104997438839101e-06</v>
+        <v>1.493291097825197e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.797309027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>59319.6399439797</v>
+        <v>82428.18714461921</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.89216455513705</v>
+        <v>66.56331165072397</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.52817239749932</v>
+        <v>91.07485956654367</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.27425559326356</v>
+        <v>82.38280279390305</v>
       </c>
       <c r="AD3" t="n">
-        <v>47892.16455513705</v>
+        <v>66563.31165072398</v>
       </c>
       <c r="AE3" t="n">
-        <v>65528.17239749932</v>
+        <v>91074.85956654366</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.136560013487133e-06</v>
+        <v>1.499106289267515e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>59274.25559326356</v>
+        <v>82382.80279390306</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.56226400861303</v>
+        <v>76.27611775806632</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.07342613638876</v>
+        <v>104.3643493813663</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.3815061683103</v>
+        <v>94.40396235271938</v>
       </c>
       <c r="AD2" t="n">
-        <v>66562.26400861303</v>
+        <v>76276.11775806632</v>
       </c>
       <c r="AE2" t="n">
-        <v>91073.42613638876</v>
+        <v>104364.3493813663</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.084528153684595e-06</v>
+        <v>1.265599252987419e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.081597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>82381.5061683103</v>
+        <v>94403.96235271938</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.46929603099526</v>
+        <v>68.81148365822813</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.6860732608976</v>
+        <v>94.15090768955834</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.22620942689267</v>
+        <v>85.16527720131886</v>
       </c>
       <c r="AD3" t="n">
-        <v>49469.29603099526</v>
+        <v>68811.48365822813</v>
       </c>
       <c r="AE3" t="n">
-        <v>67686.0732608976</v>
+        <v>94150.90768955834</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.129492786121917e-06</v>
+        <v>1.452274558600133e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.686631944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>61226.20942689267</v>
+        <v>85165.27720131885</v>
       </c>
     </row>
   </sheetData>
